--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\OneDrive\Escritorio\Trabajo Gobierno\Febrero\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7522F93-9E58-424E-8C97-B229740C3234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D3C01B-445B-49C4-A70E-DF218937890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,6 +1333,18 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
     <sortCondition descending="1" ref="D27"/>
   </sortState>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\OneDrive\Escritorio\Trabajo Gobierno\Febrero\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D3C01B-445B-49C4-A70E-DF218937890A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866D7F6D-9ED0-481E-BA8B-20E1412BA8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -241,10 +241,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,25 +599,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E2">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.24621212121212122</v>
+        <v>0.23214285714285715</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>24.621212121212121</v>
+        <v>23.214285714285715</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -629,25 +625,25 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>6.0606060606060608E-2</v>
+        <v>5.0595238095238096E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>6.0606060606060606</v>
+        <v>5.0595238095238093</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -655,25 +651,25 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>4.5454545454545456E-2</v>
+        <v>5.6547619047619048E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
+        <v>5.6547619047619051</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -681,25 +677,25 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>7.575757575757576E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <v>0.89285714285714279</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -707,25 +703,25 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.2727272727272729</v>
+        <v>2.083333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -736,22 +732,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-3</v>
+        <v>2.976190476190476E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.37878787878787878</v>
+        <v>0.29761904761904762</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -759,25 +755,25 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>9.8214285714285712E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
+        <v>9.8214285714285712</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -788,22 +784,22 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>6.0606060606060608E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>6.0606060606060606</v>
+        <v>4.7619047619047619</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -811,25 +807,25 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.893939393939394E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.893939393939394</v>
+        <v>1.7857142857142856</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -837,25 +833,25 @@
         <v>24</v>
       </c>
       <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>3.7878787878787881</v>
+        <v>5.3571428571428568</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -866,22 +862,22 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>6.8181818181818177E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>6.8181818181818175</v>
+        <v>5.3571428571428568</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -889,25 +885,25 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E13">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>4.924242424242424E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>4.9242424242424239</v>
+        <v>4.1666666666666661</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -915,25 +911,25 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.2727272727272729</v>
+        <v>2.3809523809523809</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -941,25 +937,25 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>7.575757575757576E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <v>0.89285714285714279</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -967,25 +963,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>4.5454545454545456E-2</v>
+        <v>5.9523809523809521E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>4.5454545454545459</v>
+        <v>5.9523809523809517</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -993,25 +989,25 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.7878787878787881</v>
+        <v>3.5714285714285712</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1019,25 +1015,25 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.5151515151515152E-2</v>
+        <v>1.488095238095238E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.5151515151515151</v>
+        <v>1.4880952380952379</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1045,25 +1041,25 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.4090909090909088E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.4090909090909087</v>
+        <v>3.5714285714285712</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1071,25 +1067,25 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.6515151515151516E-2</v>
+        <v>2.976190476190476E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.6515151515151514</v>
+        <v>2.9761904761904758</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1097,25 +1093,25 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-3</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.37878787878787878</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1123,25 +1119,25 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>7.575757575757576E-3</v>
+        <v>8.9285714285714281E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <v>0.89285714285714279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1149,25 +1145,25 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-3</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.37878787878787878</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1175,25 +1171,25 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>5.6818181818181816E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>5.6818181818181817</v>
+        <v>4.7619047619047619</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1201,25 +1197,25 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>7.575757575757576E-3</v>
+        <v>1.1904761904761904E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>0.75757575757575757</v>
+        <v>1.1904761904761905</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1227,25 +1223,25 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-3</v>
+        <v>5.9523809523809521E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.37878787878787878</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1253,25 +1249,25 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E27">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.1363636363636364E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.1363636363636365</v>
+        <v>1.7857142857142856</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1289,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>3.787878787878788E-3</v>
+        <v>2.976190476190476E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.37878787878787878</v>
+        <v>0.29761904761904762</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1306,18 +1302,18 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>264</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F28)</f>
-        <v>0.99999999999999967</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
-        <v>99.999999999999957</v>
+        <v>100.00000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1326,7 +1322,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
@@ -1351,6 +1347,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1577,24 +1590,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1611,29 +1632,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\OneDrive\Escritorio\Trabajo Gobierno\Febrero\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866D7F6D-9ED0-481E-BA8B-20E1412BA8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD8EF5-BD3E-485F-9568-2A84F9A360DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,25 +599,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.23214285714285715</v>
+        <v>0.23224043715846995</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>23.214285714285715</v>
+        <v>23.224043715846996</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -625,25 +625,25 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E3">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>5.0595238095238096E-2</v>
+        <v>5.1912568306010931E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>5.0595238095238093</v>
+        <v>5.1912568306010929</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -654,22 +654,22 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>5.6547619047619048E-2</v>
+        <v>5.1912568306010931E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>5.6547619047619051</v>
+        <v>5.1912568306010929</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -687,15 +687,15 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>8.9285714285714281E-3</v>
+        <v>8.1967213114754103E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.89285714285714279</v>
+        <v>0.81967213114754101</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -703,25 +703,25 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.4590163934426229E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.083333333333333</v>
+        <v>2.459016393442623</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -732,22 +732,22 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2.976190476190476E-3</v>
+        <v>2.7322404371584699E-3</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.29761904761904762</v>
+        <v>0.27322404371584702</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -755,25 +755,25 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.8214285714285712E-2</v>
+        <v>9.5628415300546443E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9.8214285714285712</v>
+        <v>9.5628415300546443</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -791,15 +791,15 @@
         <v>19</v>
       </c>
       <c r="E9">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.3715846994535519E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.7619047619047619</v>
+        <v>4.3715846994535523</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -807,25 +807,25 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.7857142857142856E-2</v>
+        <v>1.912568306010929E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.7857142857142856</v>
+        <v>1.9125683060109291</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -833,25 +833,25 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>5.3571428571428568E-2</v>
+        <v>6.2841530054644809E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>5.3571428571428568</v>
+        <v>6.2841530054644812</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -859,25 +859,25 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.3571428571428568E-2</v>
+        <v>5.4644808743169397E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>5.3571428571428568</v>
+        <v>5.4644808743169397</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -885,25 +885,25 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E13">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.0983606557377046E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>4.1666666666666661</v>
+        <v>4.0983606557377046</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -921,15 +921,15 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.3809523809523808E-2</v>
+        <v>2.185792349726776E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.3809523809523809</v>
+        <v>2.1857923497267762</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -940,22 +940,22 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>8.9285714285714281E-3</v>
+        <v>8.1967213114754103E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.89285714285714279</v>
+        <v>0.81967213114754101</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -963,25 +963,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>5.9523809523809521E-2</v>
+        <v>6.0109289617486336E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>5.9523809523809517</v>
+        <v>6.0109289617486334</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -989,25 +989,25 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.825136612021858E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.5714285714285712</v>
+        <v>3.8251366120218582</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1018,22 +1018,22 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.488095238095238E-2</v>
+        <v>1.3661202185792349E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.4880952380952379</v>
+        <v>1.3661202185792349</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1041,25 +1041,25 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E19">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.5714285714285712E-2</v>
+        <v>3.5519125683060107E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.5714285714285712</v>
+        <v>3.5519125683060109</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1077,15 +1077,15 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.976190476190476E-2</v>
+        <v>2.7322404371584699E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.9761904761904758</v>
+        <v>2.7322404371584699</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1103,15 +1103,15 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5.9523809523809521E-3</v>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.59523809523809523</v>
+        <v>0.54644808743169404</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1119,25 +1119,25 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E22">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>8.9285714285714281E-3</v>
+        <v>1.092896174863388E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.89285714285714279</v>
+        <v>1.0928961748633881</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1155,15 +1155,15 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.9523809523809521E-3</v>
+        <v>5.4644808743169399E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.59523809523809523</v>
+        <v>0.54644808743169404</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,25 +1171,25 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.7619047619047616E-2</v>
+        <v>4.6448087431693992E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.7619047619047619</v>
+        <v>4.6448087431693992</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1207,15 +1207,15 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.1904761904761904E-2</v>
+        <v>1.092896174863388E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1.1904761904761905</v>
+        <v>1.0928961748633881</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1223,25 +1223,25 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E26">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>5.9523809523809521E-3</v>
+        <v>8.1967213114754103E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.59523809523809523</v>
+        <v>0.81967213114754101</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1259,15 +1259,15 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.7857142857142856E-2</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.7857142857142856</v>
+        <v>1.639344262295082</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1285,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>2.976190476190476E-3</v>
+        <v>2.7322404371584699E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.29761904761904762</v>
+        <v>0.27322404371584702</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1302,18 +1302,18 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F28)</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
-        <v>100.00000000000003</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1347,23 +1347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1590,32 +1573,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1632,4 +1607,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebr\OneDrive\Escritorio\Trabajo Gobierno\Febrero\HORUS\py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD8EF5-BD3E-485F-9568-2A84F9A360DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3AE9C7-C193-4B2D-B359-28FE42F2718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,6 +587,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1">
+        <f>D29</f>
+        <v>403</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
@@ -599,25 +603,26 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.23224043715846995</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>23.224043715846996</v>
+        <v>23.076923076923077</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -625,25 +630,26 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>5.1912568306010931E-2</v>
+        <v>4.9627791563275438E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>5.1912568306010929</v>
+        <v>4.9627791563275441</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -651,25 +657,26 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>5.1912568306010931E-2</v>
+        <v>4.9627791563275438E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>5.1912568306010929</v>
+        <v>4.9627791563275441</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -687,15 +694,16 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>8.1967213114754103E-3</v>
+        <v>7.4441687344913151E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.81967213114754101</v>
+        <v>0.74441687344913154</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -703,25 +711,26 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.4590163934426229E-2</v>
+        <v>2.4813895781637719E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.459016393442623</v>
+        <v>2.481389578163772</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -729,25 +738,26 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>2.7322404371584699E-3</v>
+        <v>1.488833746898263E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.27322404371584702</v>
+        <v>1.4888337468982631</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -755,25 +765,26 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E8">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.5628415300546443E-2</v>
+        <v>9.9255583126550875E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9.5628415300546443</v>
+        <v>9.9255583126550881</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -781,25 +792,26 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.3715846994535519E-2</v>
+        <v>4.7146401985111663E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.3715846994535523</v>
+        <v>4.7146401985111659</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -817,15 +829,16 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.912568306010929E-2</v>
+        <v>1.7369727047146403E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.9125683060109291</v>
+        <v>1.7369727047146404</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -843,15 +856,16 @@
         <v>29</v>
       </c>
       <c r="E11">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>6.2841530054644809E-2</v>
+        <v>5.7071960297766747E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>6.2841530054644812</v>
+        <v>5.7071960297766751</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -859,25 +873,26 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.4644808743169397E-2</v>
+        <v>5.4590570719602979E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>5.4644808743169397</v>
+        <v>5.4590570719602978</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -888,22 +903,23 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>4.0983606557377046E-2</v>
+        <v>3.7220843672456573E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>4.0983606557377046</v>
+        <v>3.7220843672456572</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -911,25 +927,26 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.185792349726776E-2</v>
+        <v>2.2332506203473945E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.1857923497267762</v>
+        <v>2.2332506203473943</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -937,25 +954,26 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E15">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>8.1967213114754103E-3</v>
+        <v>9.9255583126550868E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.81967213114754101</v>
+        <v>0.99255583126550873</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -963,25 +981,26 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>6.0109289617486336E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>6.0109289617486334</v>
+        <v>6.4516129032258061</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -989,25 +1008,26 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E17">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.825136612021858E-2</v>
+        <v>3.7220843672456573E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.8251366120218582</v>
+        <v>3.7220843672456572</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1015,25 +1035,26 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E18">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.3661202185792349E-2</v>
+        <v>1.488833746898263E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.3661202185792349</v>
+        <v>1.4888337468982631</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1044,22 +1065,23 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.5519125683060107E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.5519125683060109</v>
+        <v>3.225806451612903</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1077,15 +1099,16 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.7322404371584699E-2</v>
+        <v>2.4813895781637719E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.7322404371584699</v>
+        <v>2.481389578163772</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1103,15 +1126,16 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>5.4644808743169399E-3</v>
+        <v>4.9627791563275434E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.54644808743169404</v>
+        <v>0.49627791563275436</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1129,15 +1153,16 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1.092896174863388E-2</v>
+        <v>9.9255583126550868E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1.0928961748633881</v>
+        <v>0.99255583126550873</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1155,15 +1180,16 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.4644808743169399E-3</v>
+        <v>4.9627791563275434E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.54644808743169404</v>
+        <v>0.49627791563275436</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,25 +1197,26 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.6448087431693992E-2</v>
+        <v>4.7146401985111663E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.6448087431693992</v>
+        <v>4.7146401985111659</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1200,22 +1227,23 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.092896174863388E-2</v>
+        <v>9.9255583126550868E-3</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1.0928961748633881</v>
+        <v>0.99255583126550873</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1233,15 +1261,16 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>8.1967213114754103E-3</v>
+        <v>7.4441687344913151E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.81967213114754101</v>
+        <v>0.74441687344913154</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1252,22 +1281,23 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.6393442622950821E-2</v>
+        <v>1.488833746898263E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.639344262295082</v>
+        <v>1.4888337468982631</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1275,25 +1305,26 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>366</v>
+        <f>D29</f>
+        <v>403</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>2.7322404371584699E-3</v>
+        <v>4.9627791563275434E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.27322404371584702</v>
+        <v>0.49627791563275436</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1302,14 +1333,14 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F28)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
@@ -1322,7 +1353,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1347,6 +1378,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1573,24 +1621,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1607,29 +1663,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3AE9C7-C193-4B2D-B359-28FE42F2718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD56F7-8B11-4326-B750-45F3B1A3BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="E1">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -603,26 +603,26 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.23076923076923078</v>
+        <v>0.22317596566523606</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>23.076923076923077</v>
+        <v>22.317596566523605</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -630,26 +630,26 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>4.9627791563275438E-2</v>
+        <v>6.0085836909871244E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>4.9627791563275441</v>
+        <v>6.0085836909871242</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,26 +657,26 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>4.9627791563275438E-2</v>
+        <v>6.2231759656652362E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>4.9627791563275441</v>
+        <v>6.2231759656652361</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -684,26 +684,26 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>7.4441687344913151E-3</v>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.74441687344913154</v>
+        <v>1.0729613733905579</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -711,26 +711,26 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.4813895781637719E-2</v>
+        <v>2.575107296137339E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.481389578163772</v>
+        <v>2.5751072961373391</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -749,15 +749,15 @@
       </c>
       <c r="E7">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.488833746898263E-2</v>
+        <v>1.2875536480686695E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>1.4888337468982631</v>
+        <v>1.2875536480686696</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -765,26 +765,26 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>9.9255583126550875E-2</v>
+        <v>8.7982832618025753E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>9.9255583126550881</v>
+        <v>8.7982832618025757</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -795,23 +795,23 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.7146401985111663E-2</v>
+        <v>4.07725321888412E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.7146401985111659</v>
+        <v>4.0772532188841204</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -819,26 +819,26 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.7369727047146403E-2</v>
+        <v>1.7167381974248927E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.7369727047146404</v>
+        <v>1.7167381974248928</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -849,23 +849,23 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>5.7071960297766747E-2</v>
+        <v>4.9356223175965663E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>5.7071960297766751</v>
+        <v>4.9356223175965663</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -873,26 +873,26 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.4590570719602979E-2</v>
+        <v>5.1502145922746781E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>5.4590570719602978</v>
+        <v>5.1502145922746783</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -900,26 +900,26 @@
         <v>26</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.7220843672456573E-2</v>
+        <v>3.6480686695278972E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3.7220843672456572</v>
+        <v>3.648068669527897</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -927,26 +927,26 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.2332506203473945E-2</v>
+        <v>2.1459227467811159E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.2332506203473943</v>
+        <v>2.1459227467811157</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -954,26 +954,26 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>9.9255583126550868E-3</v>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.99255583126550873</v>
+        <v>1.0729613733905579</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -981,26 +981,26 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>6.4516129032258063E-2</v>
+        <v>7.2961373390557943E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>6.4516129032258061</v>
+        <v>7.296137339055794</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1008,26 +1008,26 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.7220843672456573E-2</v>
+        <v>3.6480686695278972E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.7220843672456572</v>
+        <v>3.648068669527897</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1035,26 +1035,26 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.488833746898263E-2</v>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.4888337468982631</v>
+        <v>1.502145922746781</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1062,26 +1062,26 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.2258064516129031E-2</v>
+        <v>3.2188841201716736E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.225806451612903</v>
+        <v>3.2188841201716736</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1089,26 +1089,26 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.4813895781637719E-2</v>
+        <v>2.3605150214592276E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.481389578163772</v>
+        <v>2.3605150214592276</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1116,26 +1116,26 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>4.9627791563275434E-3</v>
+        <v>6.4377682403433476E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.49627791563275436</v>
+        <v>0.64377682403433478</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1143,26 +1143,26 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>9.9255583126550868E-3</v>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.99255583126550873</v>
+        <v>1.0729613733905579</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1170,26 +1170,26 @@
         <v>9</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>4.9627791563275434E-3</v>
+        <v>6.4377682403433476E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.49627791563275436</v>
+        <v>0.64377682403433478</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1197,26 +1197,26 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.7146401985111663E-2</v>
+        <v>4.5064377682403435E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.7146401985111659</v>
+        <v>4.5064377682403434</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1224,26 +1224,26 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>9.9255583126550868E-3</v>
+        <v>1.0729613733905579E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>0.99255583126550873</v>
+        <v>1.0729613733905579</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1251,26 +1251,26 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E26">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>7.4441687344913151E-3</v>
+        <v>8.5836909871244635E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.74441687344913154</v>
+        <v>0.85836909871244638</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1278,26 +1278,26 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.488833746898263E-2</v>
+        <v>1.5021459227467811E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.4888337468982631</v>
+        <v>1.502145922746781</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1305,26 +1305,26 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <f>D29</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>4.9627791563275434E-3</v>
+        <v>6.4377682403433476E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.49627791563275436</v>
+        <v>0.64377682403433478</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
-        <v>100</v>
+        <v>99.999999999999972</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>12</v>
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>
@@ -1378,23 +1378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1621,32 +1604,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1663,4 +1638,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD56F7-8B11-4326-B750-45F3B1A3BF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D8BBBB-E67D-4047-9073-5B3563D6D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -562,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="E1">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -603,26 +603,26 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E2">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.22317596566523606</v>
+        <v>0.22264875239923224</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>22.317596566523605</v>
+        <v>22.264875239923224</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -630,26 +630,26 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>6.0085836909871244E-2</v>
+        <v>5.5662188099808059E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>6.0085836909871242</v>
+        <v>5.5662188099808061</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,26 +657,26 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>6.2231759656652362E-2</v>
+        <v>7.8694817658349334E-2</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>6.2231759656652361</v>
+        <v>7.8694817658349336</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -695,15 +695,15 @@
       </c>
       <c r="E5">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>1.0729613733905579E-2</v>
+        <v>9.5969289827255271E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1.0729613733905579</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -722,15 +722,15 @@
       </c>
       <c r="E6">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>2.575107296137339E-2</v>
+        <v>2.6871401151631478E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>2.5751072961373391</v>
+        <v>2.6871401151631478</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -741,23 +741,23 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.2875536480686695E-2</v>
+        <v>1.1516314779270634E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>1.2875536480686696</v>
+        <v>1.1516314779270633</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -765,26 +765,26 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>8.7982832618025753E-2</v>
+        <v>9.2130518234165071E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>8.7982832618025757</v>
+        <v>9.2130518234165066</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -792,26 +792,26 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>4.07725321888412E-2</v>
+        <v>4.0307101727447218E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4.0772532188841204</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -830,15 +830,15 @@
       </c>
       <c r="E10">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.7167381974248927E-2</v>
+        <v>1.5355086372360844E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>1.7167381974248928</v>
+        <v>1.5355086372360844</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -849,23 +849,23 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>4.9356223175965663E-2</v>
+        <v>4.4145873320537425E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>4.9356223175965663</v>
+        <v>4.4145873320537428</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -873,26 +873,26 @@
         <v>25</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>5.1502145922746781E-2</v>
+        <v>4.9904030710172742E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>5.1502145922746783</v>
+        <v>4.9904030710172744</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -903,23 +903,23 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.6480686695278972E-2</v>
+        <v>3.2629558541266791E-2</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3.648068669527897</v>
+        <v>3.262955854126679</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -938,15 +938,15 @@
       </c>
       <c r="E14">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>2.1459227467811159E-2</v>
+        <v>1.9193857965451054E-2</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.1459227467811157</v>
+        <v>1.9193857965451053</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -965,15 +965,15 @@
       </c>
       <c r="E15">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>1.0729613733905579E-2</v>
+        <v>9.5969289827255271E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>1.0729613733905579</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -981,26 +981,26 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>7.2961373390557943E-2</v>
+        <v>6.71785028790787E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>7.296137339055794</v>
+        <v>6.7178502879078703</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1008,26 +1008,26 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.6480686695278972E-2</v>
+        <v>4.0307101727447218E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.648068669527897</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1035,26 +1035,26 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.5021459227467811E-2</v>
+        <v>1.7274472168905951E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.502145922746781</v>
+        <v>1.727447216890595</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1062,26 +1062,26 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.2188841201716736E-2</v>
+        <v>3.4548944337811902E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.2188841201716736</v>
+        <v>3.45489443378119</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1100,15 +1100,15 @@
       </c>
       <c r="E20">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.3605150214592276E-2</v>
+        <v>2.1113243761996161E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.3605150214592276</v>
+        <v>2.1113243761996161</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1127,15 +1127,15 @@
       </c>
       <c r="E21">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>6.4377682403433476E-3</v>
+        <v>5.7581573896353169E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.64377682403433478</v>
+        <v>0.57581573896353166</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1154,15 +1154,15 @@
       </c>
       <c r="E22">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1.0729613733905579E-2</v>
+        <v>9.5969289827255271E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1.0729613733905579</v>
+        <v>0.95969289827255266</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1181,15 +1181,15 @@
       </c>
       <c r="E23">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>6.4377682403433476E-3</v>
+        <v>5.7581573896353169E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.64377682403433478</v>
+        <v>0.57581573896353166</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1208,15 +1208,15 @@
       </c>
       <c r="E24">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.5064377682403435E-2</v>
+        <v>4.0307101727447218E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.5064377682403434</v>
+        <v>4.0307101727447217</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1224,26 +1224,26 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.0729613733905579E-2</v>
+        <v>1.1516314779270634E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1.0729613733905579</v>
+        <v>1.1516314779270633</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1262,15 +1262,15 @@
       </c>
       <c r="E26">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>8.5836909871244635E-3</v>
+        <v>7.677543186180422E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.85836909871244638</v>
+        <v>0.76775431861804222</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1278,26 +1278,26 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1.5021459227467811E-2</v>
+        <v>1.5355086372360844E-2</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>1.502145922746781</v>
+        <v>1.5355086372360844</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1305,26 +1305,26 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <f>D29</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>6.4377682403433476E-3</v>
+        <v>1.5355086372360844E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.64377682403433478</v>
+        <v>1.5355086372360844</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1333,14 +1333,14 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F28)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D8BBBB-E67D-4047-9073-5B3563D6D4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932667D-FC47-4BE4-83BB-C89088B4E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Gobernacion</t>
   </si>
   <si>
-    <t>asesores</t>
-  </si>
-  <si>
     <t>OPDAPAS</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>IMCUFIDEM</t>
   </si>
   <si>
-    <t>Transparencia</t>
-  </si>
-  <si>
     <t>Administracion</t>
   </si>
   <si>
@@ -125,25 +119,31 @@
     <t>Contraloria_Municipal</t>
   </si>
   <si>
-    <t>Comunicación_Social</t>
-  </si>
-  <si>
     <t>Gerencia_de_la_Ciudad</t>
   </si>
   <si>
     <t>Proteccion_Civil_y_Bomberos</t>
   </si>
   <si>
-    <t>Gobierno_digital</t>
-  </si>
-  <si>
-    <t>asuntos_religiosos</t>
-  </si>
-  <si>
     <t>Obras_Publicas</t>
   </si>
   <si>
-    <t>Defensora_Municipal_de_los_derechos_humanos</t>
+    <t>Asesores</t>
+  </si>
+  <si>
+    <t>Asuntos_Religosos</t>
+  </si>
+  <si>
+    <t>Comunicacion_Social</t>
+  </si>
+  <si>
+    <t>Defensoria_Municipal_de_los_Derechos_Humanos</t>
+  </si>
+  <si>
+    <t>Gobierno_Digital_y_Electronico</t>
+  </si>
+  <si>
+    <t>Transparencia_y_Gobierno_Abierto</t>
   </si>
 </sst>
 </file>
@@ -159,48 +159,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -215,17 +179,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -589,7 +547,7 @@
       </c>
       <c r="E1">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -599,359 +557,359 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D28" si="0">SUM(B2:C2)</f>
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>0.22264875239923224</v>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>22.264875239923224</v>
+        <v>5.4545454545454541</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
+      <c r="A3" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>5.5662188099808059E-2</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>5.5662188099808061</v>
+        <v>0.54545454545454553</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
+      <c r="A4" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>7.8694817658349334E-2</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>7.8694817658349336</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>8.545454545454545E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.545454545454546E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454545E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>1.4545454545454546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.4545454545454545E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>1.4545454545454546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.5454545454545455E-2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.5454545454545454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.6363636363636365E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.6363636363636365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="E5">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>9.5969289827255271E-3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>0.95969289827255266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2.6871401151631478E-2</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>2.6871401151631478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>1.1516314779270634E-2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>1.1516314779270633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>9.2130518234165071E-2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>9.2130518234165066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>4.0307101727447218E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>4.0307101727447217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.5355086372360844E-2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1.5355086372360844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E11">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>4.4145873320537425E-2</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>4.4145873320537428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>4.9904030710172742E-2</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>4.9904030710172744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>3.2629558541266791E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>3.262955854126679</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>1.9193857965451054E-2</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>1.9193857965451053</v>
+        <v>0.54545454545454553</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -965,74 +923,74 @@
       </c>
       <c r="E15">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>9.5969289827255271E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.95969289827255266</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
+      <c r="A16" t="s">
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>6.71785028790787E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>6.7178502879078703</v>
+        <v>1.0909090909090911</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>4.0307101727447218E-2</v>
+        <v>3.090909090909091E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>4.0307101727447217</v>
+        <v>3.0909090909090908</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
+      <c r="A18" t="s">
+        <v>11</v>
       </c>
       <c r="B18">
         <v>9</v>
@@ -1046,285 +1004,285 @@
       </c>
       <c r="E18">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.7274472168905951E-2</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.727447216890595</v>
+        <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>3.4548944337811902E-2</v>
+        <v>1.8181818181818181E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>3.45489443378119</v>
+        <v>1.8181818181818181</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>4.7272727272727272E-2</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>4.7272727272727275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2.1113243761996161E-2</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>2.1113243761996161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>5.7581573896353169E-3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>0.57581573896353166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="E22">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>9.5969289827255271E-3</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.95969289827255266</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>5.7581573896353169E-3</v>
+        <v>0.04</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.57581573896353166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
+      <c r="A24" t="s">
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>4.0307101727447218E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4.0307101727447217</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1.1516314779270634E-2</v>
+        <v>9.8181818181818176E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>1.1516314779270633</v>
+        <v>9.8181818181818183</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>4.1818181818181817E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>4.1818181818181817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+      <c r="C27">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E27">
+        <f>D29</f>
+        <v>550</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0.21818181818181817</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>21.818181818181817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>0</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="1"/>
-        <v>7.677543186180422E-3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>0.76775431861804222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <f>D29</f>
-        <v>521</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1.5355086372360844E-2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1.5355086372360844</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <f>D29</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1.5355086372360844E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>1.5355086372360844</v>
+        <v>1.0909090909090911</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1333,18 +1291,18 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29">
         <f>SUM(F2:F28)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
-        <v>99.999999999999972</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1353,7 +1311,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1378,6 +1336,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1604,24 +1579,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1638,29 +1621,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XAMPP\htdocs\HORUS\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932667D-FC47-4BE4-83BB-C89088B4E70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD0C8C6-2DC3-4A36-88D7-F282C8A12C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A414B5A2-60C7-4F45-8BD6-994228E878CD}"/>
   </bookViews>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC664C-F74D-48DB-B806-F62A56262156}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C28"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="E1">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -572,15 +572,15 @@
       </c>
       <c r="E2">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F2">
         <f>(B2/E2)</f>
-        <v>5.4545454545454543E-2</v>
+        <v>5.2264808362369339E-2</v>
       </c>
       <c r="G2">
         <f>(F2)*100</f>
-        <v>5.4545454545454541</v>
+        <v>5.2264808362369335</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -599,15 +599,15 @@
       </c>
       <c r="E3">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F28" si="1">(B3/E3)</f>
-        <v>5.454545454545455E-3</v>
+        <v>5.2264808362369342E-3</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G28" si="2">(F3)*100</f>
-        <v>0.54545454545454553</v>
+        <v>0.52264808362369342</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -626,15 +626,15 @@
       </c>
       <c r="E4">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>7.2727272727272727E-3</v>
+        <v>6.9686411149825784E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.72727272727272729</v>
+        <v>0.69686411149825789</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -653,15 +653,15 @@
       </c>
       <c r="E5">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>1.9163763066202089E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.9163763066202089</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -669,10 +669,10 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -680,15 +680,15 @@
       </c>
       <c r="E6">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>8.545454545454545E-2</v>
+        <v>8.5365853658536592E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>8.545454545454545</v>
+        <v>8.536585365853659</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -699,23 +699,23 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6.545454545454546E-2</v>
+        <v>6.2717770034843204E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>6.5454545454545459</v>
+        <v>6.2717770034843205</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -723,26 +723,26 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.4545454545454545E-2</v>
+        <v>1.5679442508710801E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>1.4545454545454546</v>
+        <v>1.5679442508710801</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -750,26 +750,26 @@
         <v>33</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>1.4545454545454545E-2</v>
+        <v>1.5679442508710801E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>1.4545454545454546</v>
+        <v>1.5679442508710801</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -777,26 +777,26 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>2.5454545454545455E-2</v>
+        <v>2.6132404181184669E-2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>2.5454545454545454</v>
+        <v>2.6132404181184667</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -804,26 +804,26 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>1.6363636363636365E-2</v>
+        <v>1.7421602787456445E-2</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>1.6363636363636365</v>
+        <v>1.7421602787456445</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -834,23 +834,23 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>3.8327526132404179E-2</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.8327526132404177</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -869,15 +869,15 @@
       </c>
       <c r="E13">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>9.0909090909090905E-3</v>
+        <v>8.7108013937282226E-3</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>0.90909090909090906</v>
+        <v>0.87108013937282225</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -896,15 +896,15 @@
       </c>
       <c r="E14">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>5.454545454545455E-3</v>
+        <v>5.2264808362369342E-3</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>0.54545454545454553</v>
+        <v>0.52264808362369342</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -923,15 +923,15 @@
       </c>
       <c r="E15">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>9.0909090909090905E-3</v>
+        <v>8.7108013937282226E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>0.90909090909090906</v>
+        <v>0.87108013937282225</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -950,15 +950,15 @@
       </c>
       <c r="E16">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>1.090909090909091E-2</v>
+        <v>1.0452961672473868E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>1.0909090909090911</v>
+        <v>1.0452961672473868</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -966,26 +966,26 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>3.090909090909091E-2</v>
+        <v>3.484320557491289E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>3.0909090909090908</v>
+        <v>3.484320557491289</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1004,15 +1004,15 @@
       </c>
       <c r="E18">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>1.6363636363636365E-2</v>
+        <v>1.5679442508710801E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>1.6363636363636365</v>
+        <v>1.5679442508710801</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1020,26 +1020,26 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>1.8181818181818181E-2</v>
+        <v>1.9163763066202089E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>1.8181818181818181</v>
+        <v>1.9163763066202089</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1058,15 +1058,15 @@
       </c>
       <c r="E20">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>4.7272727272727272E-2</v>
+        <v>4.5296167247386762E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>4.7272727272727275</v>
+        <v>4.529616724738676</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1074,26 +1074,26 @@
         <v>9</v>
       </c>
       <c r="B21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>4.5296167247386762E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.529616724738676</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1104,23 +1104,23 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1.4545454545454545E-2</v>
+        <v>1.3937282229965157E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>1.4545454545454546</v>
+        <v>1.3937282229965158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1131,23 +1131,23 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>3.8327526132404179E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.8327526132404177</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1155,26 +1155,26 @@
         <v>14</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>4.3554006968641118E-2</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.3554006968641117</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1182,26 +1182,26 @@
         <v>20</v>
       </c>
       <c r="B25">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E25">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>9.8181818181818176E-2</v>
+        <v>9.5818815331010457E-2</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>9.8181818181818183</v>
+        <v>9.5818815331010452</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1209,10 +1209,10 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -1220,15 +1220,15 @@
       </c>
       <c r="E26">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>4.1818181818181817E-2</v>
+        <v>4.5296167247386762E-2</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>4.1818181818181817</v>
+        <v>4.529616724738676</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1236,26 +1236,26 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E27">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.21818181818181817</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>21.818181818181817</v>
+        <v>21.428571428571427</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1274,15 +1274,15 @@
       </c>
       <c r="E28">
         <f>D29</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1.090909090909091E-2</v>
+        <v>1.0452961672473868E-2</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>1.0909090909090911</v>
+        <v>1.0452961672473868</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D29">
         <f>SUM(B2:B28)</f>
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G29">
         <f>SUM(G2:G28)</f>
-        <v>100</v>
+        <v>99.999999999999972</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D30">
         <f>MEDIAN(D2:D27)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1336,23 +1336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100747A2AC1B2A2EC4D9777D92AB3C1606A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09a69fa5213838aa2509153927f32dac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9d79ead9-ccf6-4ca1-bf50-acff66080910" xmlns:ns4="570fb897-d274-4457-aa38-b13802a1744e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5f278dbff8306a56c26a3beb38da730" ns3:_="" ns4:_="">
     <xsd:import namespace="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
@@ -1579,32 +1562,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9d79ead9-ccf6-4ca1-bf50-acff66080910" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C0F8AD-02DC-494A-81E4-AE7B61AFE288}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1621,4 +1596,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8087EB69-BA50-4370-90EF-9370E79F5015}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534DA14E-2438-488D-BCE6-7785D8723E22}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9d79ead9-ccf6-4ca1-bf50-acff66080910"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="570fb897-d274-4457-aa38-b13802a1744e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -500,11 +500,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.95049504950495</v>
+        <v>4.682779456193353</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.495049504950495</v>
+        <v>0.4531722054380665</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6600660066006601</v>
+        <v>0.6042296072507553</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.815181518151815</v>
+        <v>1.661631419939577</v>
       </c>
     </row>
     <row r="6">
@@ -610,13 +610,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
         <v>98</v>
@@ -628,11 +628,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.085808580858085</v>
+        <v>7.703927492447129</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[544, 609, 611, 633, 634]</t>
+          <t>[677, 680]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 577, 620]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.590759075907591</v>
+        <v>7.703927492447129</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.485148514851485</v>
+        <v>1.359516616314199</v>
       </c>
     </row>
     <row r="9">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.65016501650165</v>
+        <v>1.510574018126888</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 636, 646]</t>
+          <t>[625, 655, 671]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 588, 604, 623, 628]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.135313531353135</v>
+        <v>3.323262839879154</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 449, 476, 598]</t>
+          <t>[9, 449]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 470, 608]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 470, 598, 608]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.65016501650165</v>
+        <v>1.661631419939577</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[476, 621]</t>
+          <t>[476]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 499, 531, 578]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 499, 531, 578, 621]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.96039603960396</v>
+        <v>3.77643504531722</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.825082508250825</v>
+        <v>0.7552870090634441</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.495049504950495</v>
+        <v>0.4531722054380665</v>
       </c>
     </row>
     <row r="15">
@@ -898,13 +898,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>100</v>
@@ -916,11 +916,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[190, 259, 350, 476, 509, 641]</t>
+          <t>[190, 259, 350, 476, 509, 641, 655]</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9900990099009901</v>
+        <v>1.057401812688822</v>
       </c>
     </row>
     <row r="16">
@@ -933,17 +933,17 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529]</t>
+          <t>[210, 529, 677]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.906344410876133</v>
       </c>
     </row>
     <row r="17">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.465346534653466</v>
+        <v>3.172205438066465</v>
       </c>
     </row>
     <row r="18">
@@ -994,29 +994,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[492]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[66, 188, 190, 245, 350, 443, 476, 516, 538, 633]</t>
+          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.65016501650165</v>
+        <v>1.812688821752266</v>
       </c>
     </row>
     <row r="19">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 613, 629]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 613, 629, 653]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.98019801980198</v>
+        <v>1.963746223564955</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[584, 626, 631]</t>
+          <t>[626, 631]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.29042904290429</v>
+        <v>4.078549848942599</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[435, 610, 633]</t>
+          <t>[435]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 436, 476, 490, 519, 523, 556, 563, 585, 634]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.455445544554455</v>
+        <v>4.380664652567976</v>
       </c>
     </row>
     <row r="22">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.32013201320132</v>
+        <v>1.208459214501511</v>
       </c>
     </row>
     <row r="23">
@@ -1154,29 +1154,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E23" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[636]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.125412541254125</v>
+        <v>4.078549848942599</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" t="n">
         <v>96</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.125412541254125</v>
+        <v>4.078549848942599</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C25" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E25" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 167, 407, 417, 429, 452, 554, 581, 583, 586, 591, 603, 617, 630, 638]</t>
+          <t>[13, 34, 167, 603, 644, 657, 659, 675]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 419, 427, 430, 442, 443, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 601, 613, 614, 627]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 419, 427, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9.900990099009901</v>
+        <v>11.17824773413897</v>
       </c>
     </row>
     <row r="26">
@@ -1250,29 +1250,29 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[341, 354, 389, 405, 413, 476, 527, 570, 580]</t>
+          <t>[354, 389, 413, 476, 570, 580, 649, 650]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 350, 359, 283, 374, 376, 377, 404, 443, 485]</t>
+          <t>[7, 31, 39, 58, 59, 75, 89, 95, 137, 162, 190, 197, 219, 247, 262, 293, 296, 341, 350, 359, 283, 374, 376, 377, 404, 405, 443, 485, 505, 526, 527, 528, 584, 607, 618]</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4.29042904290429</v>
+        <v>5.287009063444108</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E27" t="n">
         <v>98</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[510, 547, 635]</t>
+          <t>[547, 680, 682]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 597, 609, 611, 620, 622]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.62706270627063</v>
+        <v>20.2416918429003</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9900990099009901</v>
+        <v>0.906344410876133</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[696]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 710]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.682779456193353</v>
+        <v>4.782608695652174</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4531722054380665</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6042296072507553</v>
+        <v>0.5797101449275363</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[695]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 710]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.661631419939577</v>
+        <v>1.739130434782609</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.703927492447129</v>
+        <v>7.391304347826087</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[677, 680]</t>
+          <t>[697, 698, 700, 706]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 710]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.703927492447129</v>
+        <v>8.260869565217391</v>
       </c>
     </row>
     <row r="8">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.359516616314199</v>
+        <v>1.304347826086957</v>
       </c>
     </row>
     <row r="9">
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>100</v>
@@ -724,11 +724,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613]</t>
+          <t>[190, 350, 453, 471, 476, 506, 517, 520, 556, 613, 710]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.510574018126888</v>
+        <v>1.594202898550725</v>
       </c>
     </row>
     <row r="10">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" t="n">
         <v>88</v>
@@ -756,11 +756,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 710]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.323262839879154</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="11">
@@ -770,29 +770,29 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[9, 449]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 470, 598, 608]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.661631419939577</v>
+        <v>1.884057971014493</v>
       </c>
     </row>
     <row r="12">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.77643504531722</v>
+        <v>3.623188405797102</v>
       </c>
     </row>
     <row r="13">
@@ -834,29 +834,29 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[691]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[190, 192, 350, 438, 476]</t>
+          <t>[190, 192, 350, 438, 476, 710]</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7552870090634441</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="14">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4531722054380665</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.057401812688822</v>
+        <v>1.014492753623188</v>
       </c>
     </row>
     <row r="16">
@@ -930,29 +930,29 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[210, 529, 677]</t>
+          <t>[210, 529]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[136, 190, 350, 355, 471, 476]</t>
+          <t>[136, 190, 350, 355, 471, 476, 677, 710]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.906344410876133</v>
+        <v>1.159420289855073</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[684, 687, 704]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 710]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.172205438066465</v>
+        <v>3.188405797101449</v>
       </c>
     </row>
     <row r="18">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.812688821752266</v>
+        <v>1.739130434782609</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[592]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 613, 629, 653]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.963746223564955</v>
+        <v>2.318840579710145</v>
       </c>
     </row>
     <row r="20">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.078549848942599</v>
+        <v>3.91304347826087</v>
       </c>
     </row>
     <row r="21">
@@ -1090,29 +1090,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>97</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[435]</t>
+          <t>[701]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634]</t>
+          <t>[15, 56, 91, 102, 144, 148, 160, 180, 190, 205, 269, 274, 279, 296, 350, 420, 421, 424, 435, 436, 476, 490, 519, 523, 556, 563, 585, 610, 633, 634, 710]</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.380664652567976</v>
+        <v>4.492753623188406</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609]</t>
+          <t>[166, 254, 361, 371, 473, 609, 691, 697, 700]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 476, 499]</t>
+          <t>[25, 154, 190, 244, 296, 350, 476, 499, 698]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.208459214501511</v>
+        <v>1.304347826086957</v>
       </c>
     </row>
     <row r="23">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.078549848942599</v>
+        <v>4.057971014492753</v>
       </c>
     </row>
     <row r="24">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.078549848942599</v>
+        <v>3.91304347826087</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 167, 603, 644, 657, 659, 675]</t>
+          <t>[13, 34, 167, 603, 644, 657, 659, 675, 685, 686, 699]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 419, 427, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 690]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.17824773413897</v>
+        <v>11.15942028985507</v>
       </c>
     </row>
     <row r="26">
@@ -1253,17 +1253,17 @@
         <v>35</v>
       </c>
       <c r="C26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[354, 389, 413, 476, 570, 580, 649, 650]</t>
+          <t>[354, 389, 413, 476, 570, 580, 649, 650, 673]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.287009063444108</v>
+        <v>5.072463768115942</v>
       </c>
     </row>
     <row r="27">
@@ -1282,29 +1282,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E27" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[547, 680, 682]</t>
+          <t>[547, 680, 682, 683, 689, 695, 697, 698, 700, 710]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668]</t>
+          <t>[11, 25, 26, 28, 29, 30, 32, 33, 41, 43, 46, 47, 48, 49, 61, 65, 71, 72, 84, 86, 92, 98, 99, 100, 118, 119, 125, 128, 138, 139, 150, 152, 154, 160, 163, 164, 165, 166, 168, 176, 177, 180, 185, 186, 187, 189, 190, 194, 195, 196, 204, 205, 217, 228, 231, 238, 239, 240, 254, 258, 261, 266, 270, 271, 272, 279, 301, 317, 328, 335, 346, 347, 348, 350, 361, 364, 365, 371, 372, 378, 379, 380, 407, 408, 412, 414, 415, 416, 424, 429, 430, 431, 434, 441, 444, 445, 446, 462, 463, 464, 475, 476, 482, 483, 484, 508, 510, 513, 514, 515, 524, 525, 532, 533, 534, 540, 544, 545, 556, 557, 574, 575, 595, 597, 609, 611, 620, 622, 635, 645, 647, 654, 667, 668, 692]</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.2416918429003</v>
+        <v>19.56521739130435</v>
       </c>
     </row>
     <row r="28">
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.906344410876133</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
   </sheetData>

--- a/py/Direcc.xlsx
+++ b/py/Direcc.xlsx
@@ -482,29 +482,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[696]</t>
+          <t>[730, 734]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 710]</t>
+          <t>[10, 26, 38, 40, 45, 49, 134, 153, 171, 174, 190, 203, 265, 266, 291, 305, 317, 325, 350, 447, 451, 476, 486, 489, 490, 493, 494, 495, 501, 508, 676, 689, 696, 710]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.782608695652174</v>
+        <v>4.755244755244755</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -532,11 +532,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[190, 350, 476]</t>
+          <t>[190, 350, 476, 710]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5594405594405595</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5797101449275363</v>
+        <v>0.5594405594405595</v>
       </c>
     </row>
     <row r="5">
@@ -578,29 +578,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[695]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 710]</t>
+          <t>[60, 74, 87, 97, 121, 190, 302, 350, 361, 368, 476, 695, 710]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.739130434782609</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[553]</t>
+          <t>[553, 707, 719]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666]</t>
+          <t>[11, 71, 127, 190, 241, 243, 260, 318, 319, 320, 333, 334, 344, 350, 352, 357, 367, 321, 383, 386, 400, 401, 402, 403, 409, 410, 422, 423, 427, 449, 452, 454, 458, 461, 465, 466, 467, 476, 478, 481, 503, 506, 517, 520, 522, 571, 572, 573, 576, 656, 666, 710]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.391304347826087</v>
+        <v>7.272727272727272</v>
       </c>
     </row>
     <row r="7">
@@ -642,29 +642,29 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>61</v>
       </c>
       <c r="E7" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[697, 698, 700, 706]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 710]</t>
+          <t>[13, 21, 25, 27, 55, 61, 63, 65, 92, 119, 125, 136, 166, 190, 210, 242, 254, 261, 266, 328, 329, 350, 356, 361, 408, 407, 434, 440, 441, 452, 453, 457, 462, 465, 476, 486, 489, 493, 494, 495, 508, 513, 514, 515, 525, 544, 577, 609, 611, 620, 633, 634, 677, 680, 683, 692, 697, 698, 700, 706, 710]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.260869565217391</v>
+        <v>8.531468531468532</v>
       </c>
     </row>
     <row r="8">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>100</v>
@@ -692,11 +692,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615]</t>
+          <t>[64, 80, 85, 169, 190, 350, 437, 476, 615, 710]</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.304347826086957</v>
+        <v>1.398601398601399</v>
       </c>
     </row>
     <row r="9">
@@ -709,17 +709,17 @@
         <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[711]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.594202898550725</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="10">
@@ -738,29 +738,29 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[625, 655, 671]</t>
+          <t>[625, 728]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 710]</t>
+          <t>[73, 124, 141, 190, 206, 288, 350, 355, 386, 432, 433, 466, 467, 476, 509, 578, 588, 604, 623, 628, 636, 646, 655, 671, 710]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.333333333333333</v>
+        <v>3.496503496503497</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -788,11 +788,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608]</t>
+          <t>[37, 190, 198, 208, 222, 282, 350, 424, 449, 470, 476, 598, 608, 710]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.884057971014493</v>
+        <v>1.958041958041958</v>
       </c>
     </row>
     <row r="12">
@@ -802,29 +802,29 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[476]</t>
+          <t>[476, 713]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 499, 531, 578, 621]</t>
+          <t>[11, 62, 78, 121, 123, 160, 161, 190, 236, 244, 251, 259, 267, 268, 293, 350, 369, 371, 390, 433, 442, 499, 531, 578, 621, 710]</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3.623188405797102</v>
+        <v>3.636363636363636</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8391608391608392</v>
       </c>
     </row>
     <row r="14">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>100</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[190, 350, 476]</t>
+          <t>[190, 350, 476, 710]</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.5594405594405595</v>
       </c>
     </row>
     <row r="15">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.014492753623188</v>
+        <v>0.9790209790209791</v>
       </c>
     </row>
     <row r="16">
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -948,11 +948,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[136, 190, 350, 355, 471, 476, 677, 710]</t>
+          <t>[136, 190, 350, 355, 471, 476, 677, 710, 718]</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.159420289855073</v>
+        <v>1.258741258741259</v>
       </c>
     </row>
     <row r="17">
@@ -962,29 +962,29 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[684, 687, 704]</t>
+          <t>[684]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 710]</t>
+          <t>[6, 35, 37, 63, 83, 88, 146, 147, 190, 252, 266, 278, 282, 350, 355, 381, 456, 476, 540, 562, 569, 687, 704, 710]</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.188405797101449</v>
+        <v>3.356643356643357</v>
       </c>
     </row>
     <row r="18">
@@ -994,13 +994,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
         <v>100</v>
@@ -1012,11 +1012,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634]</t>
+          <t>[66, 188, 190, 245, 350, 443, 476, 492, 516, 538, 633, 634, 710]</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.739130434782609</v>
+        <v>1.818181818181818</v>
       </c>
     </row>
     <row r="19">
@@ -1026,29 +1026,29 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[711]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710]</t>
+          <t>[53, 132, 142, 190, 235, 248, 350, 370, 385, 476, 592, 613, 629, 653, 704, 710, 721]</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.318840579710145</v>
+        <v>2.377622377622377</v>
       </c>
     </row>
     <row r="20">
@@ -1058,29 +1058,29 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[626, 631]</t>
+          <t>[626, 631, 703, 705]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584]</t>
+          <t>[24, 31, 58, 59, 75, 89, 95, 137, 190, 197, 201, 233, 234, 247, 262, 309, 350, 359, 363, 377, 389, 405, 413, 476, 485, 505, 584, 710]</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.91304347826087</v>
+        <v>3.916083916083916</v>
       </c>
     </row>
     <row r="21">
@@ -1093,17 +1093,17 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[701]</t>
+          <t>[701, 712, 720]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.492753623188406</v>
+        <v>4.335664335664335</v>
       </c>
     </row>
     <row r="22">
@@ -1122,29 +1122,29 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[166, 254, 361, 371, 473, 609, 691, 697, 700]</t>
+          <t>[166, 254, 361, 371, 473, 609, 697, 700, 710]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[25, 154, 190, 244, 296, 350, 476, 499, 698]</t>
+          <t>[25, 154, 190, 244, 296, 350, 476, 499, 691, 698]</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.304347826086957</v>
+        <v>1.398601398601399</v>
       </c>
     </row>
     <row r="23">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
         <v>100</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710]</t>
+          <t>[5, 56, 102, 105, 135, 137, 167, 170, 188, 190, 212, 245, 259, 306, 350, 374, 386, 435, 443, 476, 477, 568, 613, 630, 632, 636, 661, 710, 712]</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4.057971014492753</v>
+        <v>4.055944055944056</v>
       </c>
     </row>
     <row r="24">
@@ -1186,16 +1186,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E24" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634]</t>
+          <t>[6, 107, 114, 124, 132, 170, 190, 280, 306, 350, 371, 386, 411, 451, 470, 476, 506, 536, 567, 568, 578, 594, 604, 613, 624, 633, 634, 710]</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.91304347826087</v>
+        <v>3.916083916083916</v>
       </c>
     </row>
     <row r="25">
@@ -1218,29 +1218,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E25" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[13, 34, 167, 603, 644, 657, 659, 675, 685, 686, 699]</t>
+          <t>[13, 34, 603, 644, 657, 659, 675, 685, 686, 699, 710, 722]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 690]</t>
+          <t>[3, 4, 12, 16, 17, 18, 22, 36, 43, 64, 69, 82, 90, 94, 97, 108, 122, 139, 152, 167, 177, 182, 188, 190, 196, 211, 235, 244, 245, 249, 255, 283, 290, 307, 321, 350, 368, 372, 383, 389, 390, 398, 407, 417, 419, 427, 429, 430, 442, 443, 452, 455, 476, 477, 479, 496, 511, 517, 520, 535, 549, 554, 581, 583, 586, 591, 601, 613, 614, 617, 627, 630, 638, 639, 641, 642, 669, 690]</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>11.15942028985507</v>
+        <v>10.90909090909091</v>
       </c>
     </row>
     <row r="26">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.072463768115942</v>
+        <v>4.895104895104895</v>
       </c>
     </row>
     <row r="27">
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.56521739130435</v>
+        <v>18.88111888111888</v>
       </c>
     </row>
     <row r="28">
@@ -1314,13 +1314,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[147, 190, 350, 355, 476, 582]</t>
+          <t>[147, 190, 350, 355, 476, 582, 710]</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9790209790209791</v>
       </c>
     </row>
   </sheetData>
